--- a/小组组员评分规则/实现阶段_小组分数评审.xlsx
+++ b/小组组员评分规则/实现阶段_小组分数评审.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new-flappy-bird\小组组员评分规则\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BCDEF-BC0B-4330-8BE8-E66F77B0DE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D83513-5357-4D12-BD50-F1F0E90C14EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>周诚信</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,12 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDL伪码没有设计完成</t>
-  </si>
-  <si>
-    <t>商城和角色等模块的详细设计</t>
-  </si>
-  <si>
     <t>情况乐观，能够指导详细设计部分</t>
   </si>
   <si>
@@ -113,6 +107,18 @@
   </si>
   <si>
     <t>实现邮箱、好友和管理员功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现好友模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现好友角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏完成的界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +236,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -527,12 +536,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
@@ -553,11 +562,11 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -567,15 +576,15 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -589,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6">
@@ -610,279 +619,293 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" ht="16.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.6">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.6">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-    </row>
     <row r="24" spans="1:4" ht="16.2">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6">
-        <f>9+SUM(D19:D24)</f>
-        <v>9.1</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.2" customHeight="1">
-      <c r="A26" s="4" t="s">
+    <row r="25" spans="1:4" ht="16.2">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6">
+        <f>9+SUM(D20:D25)</f>
+        <v>8.9</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.2" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6">
+      <c r="A32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.6">
-      <c r="A31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="13.8" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="3">
-        <f>9+SUM(D31:D35)</f>
-        <v>8.9</v>
-      </c>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:4" ht="13.8" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3">
+        <f>9+SUM(D32:D36)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
-      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
